--- a/data/admin.xlsx
+++ b/data/admin.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>ADMIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
